--- a/RS3C/BOM.xlsx
+++ b/RS3C/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,12 +168,6 @@
     <t>R3</t>
   </si>
   <si>
-    <t>RES SMD 182K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>R5, R6, R11, R12, R17, R18, R19, R20, R21, R22, R23, R24, R25, R26, R27, R28, R34, R37</t>
-  </si>
-  <si>
     <t>RES SMD 100K OHM 1% 1/10W 0603</t>
   </si>
   <si>
@@ -183,9 +177,6 @@
     <t>RES SMD 84.5K OHM 1% 1/10W 0603</t>
   </si>
   <si>
-    <t>R9, R13, R42</t>
-  </si>
-  <si>
     <t>RES SMD 10K OHM 1% 1/10W 0603</t>
   </si>
   <si>
@@ -373,6 +364,15 @@
   </si>
   <si>
     <t>Non-gold contacts.</t>
+  </si>
+  <si>
+    <t>RES SMD 165K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>R5, R9, R13, R42</t>
+  </si>
+  <si>
+    <t>R8, R11, R12, R17, R18, R19, R20, R21, R22, R23, R24, R25, R26, R27, R28, R34, R37</t>
   </si>
 </sst>
 </file>
@@ -713,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +756,7 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
@@ -811,7 +811,7 @@
         <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
@@ -924,7 +924,7 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
@@ -953,7 +953,7 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
@@ -982,7 +982,7 @@
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
@@ -1005,7 +1005,7 @@
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
@@ -1016,7 +1016,7 @@
         <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1028,7 +1028,7 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
@@ -1036,10 +1036,10 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F15">
         <v>18</v>
@@ -1051,7 +1051,7 @@
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
@@ -1059,10 +1059,10 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1074,7 +1074,7 @@
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
@@ -1082,10 +1082,10 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -1097,7 +1097,7 @@
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
@@ -1105,10 +1105,10 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
@@ -1128,19 +1128,19 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F19">
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I19">
         <v>1210</v>
@@ -1149,7 +1149,7 @@
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
@@ -1157,19 +1157,19 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" t="s">
         <v>63</v>
-      </c>
-      <c r="E20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" t="s">
-        <v>66</v>
       </c>
       <c r="I20">
         <v>603</v>
@@ -1178,7 +1178,7 @@
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
@@ -1186,19 +1186,19 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F21">
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I21">
         <v>805</v>
@@ -1207,7 +1207,7 @@
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
@@ -1215,19 +1215,19 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F22">
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I22">
         <v>603</v>
@@ -1236,7 +1236,7 @@
         <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
@@ -1244,22 +1244,22 @@
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F23">
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s">
         <v>13</v>
@@ -1270,28 +1270,28 @@
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H24">
         <v>61302421121</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
@@ -1299,28 +1299,28 @@
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H25">
         <v>61301011121</v>
       </c>
       <c r="I25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
@@ -1328,19 +1328,19 @@
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.25">
@@ -1348,28 +1348,28 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H27">
         <v>22272031</v>
       </c>
       <c r="I27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.25">
@@ -1377,25 +1377,25 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.25">
@@ -1403,25 +1403,25 @@
         <v>25</v>
       </c>
       <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" t="s">
         <v>98</v>
       </c>
-      <c r="E29" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" t="s">
-        <v>100</v>
-      </c>
-      <c r="I29" t="s">
-        <v>101</v>
-      </c>
       <c r="J29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.25">
@@ -1429,28 +1429,28 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H30">
         <v>61300311121</v>
       </c>
       <c r="I30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.25">
@@ -1458,28 +1458,28 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H31">
         <v>61300411121</v>
       </c>
       <c r="I31" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
@@ -1487,28 +1487,28 @@
         <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F32">
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.25">
@@ -1516,28 +1516,28 @@
         <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H33">
         <v>61301511121</v>
       </c>
       <c r="I33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
